--- a/classfiers/greedy/multinomialNB/smote/greedy-multinomialNB-smote-results.xlsx
+++ b/classfiers/greedy/multinomialNB/smote/greedy-multinomialNB-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7811320754716982</v>
+        <v>0.954337899543379</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8239130434782609</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8228877005347595</v>
+        <v>0.9761226350581262</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8239130434782609</v>
+        <v>0.9761904761904762</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9464285714285714</v>
+        <v>0.9372197309417041</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9347826086956521</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9347715112211907</v>
+        <v>0.9665549169859515</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9347826086956521</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8156028368794326</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8869565217391304</v>
+        <v>0.7416267942583732</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8854932598039216</v>
+        <v>0.7235337243401759</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8869565217391304</v>
+        <v>0.7416267942583732</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.8564593301435406</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9782505910165484</v>
+        <v>0.8537011173184359</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.8564593301435407</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7641196013289037</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8456521739130435</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8418853693133681</v>
+        <v>0.4882154882154882</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8456521739130435</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8531232836883879</v>
+        <v>0.7745139819221138</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8939130434782608</v>
+        <v>0.8239781271360218</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8926576863779576</v>
+        <v>0.8016255763836355</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8939130434782608</v>
+        <v>0.8239781271360218</v>
       </c>
     </row>
   </sheetData>
